--- a/5.Other/ĐL nhận.xlsx
+++ b/5.Other/ĐL nhận.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B9531-F568-40A4-AD29-D07F669DEB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE61162-9E00-426C-841D-8EDB23244C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,7 +876,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
